--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T08:58:45+00:00</t>
+    <t>2023-07-11T09:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:59+00:00</t>
+    <t>2023-07-26T14:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche.</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
@@ -279,8 +279,8 @@
     <t>Meta.versionId</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>DocumentReference.meta.source</t>
@@ -801,7 +797,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interopsante.org/fhir/StructureDefinition/FrPractitioner|http://interopsante.org/fhir/StructureDefinition/FrOrganization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
 </t>
   </si>
   <si>
@@ -812,14 +808,6 @@
   </si>
   <si>
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -854,13 +842,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -2760,7 +2741,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -2786,10 +2767,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2812,16 +2793,16 @@
         <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2871,7 +2852,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2883,7 +2864,7 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2909,10 +2890,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2935,16 +2916,16 @@
         <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2994,7 +2975,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3006,7 +2987,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3032,10 +3013,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3058,16 +3039,16 @@
         <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3093,31 +3074,31 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3129,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3138,16 +3119,16 @@
         <v>35</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP10" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>35</v>
@@ -3155,10 +3136,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3181,16 +3162,16 @@
         <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3216,31 +3197,31 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3252,7 +3233,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3261,16 +3242,16 @@
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>35</v>
@@ -3278,10 +3259,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3304,16 +3285,16 @@
         <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3363,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3375,7 +3356,7 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3401,10 +3382,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3427,16 +3408,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3462,31 +3443,31 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3498,7 +3479,7 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3524,14 +3505,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3550,16 +3531,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3609,7 +3590,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3621,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3630,7 +3611,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -3647,14 +3628,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3673,16 +3654,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3732,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3770,10 +3751,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3802,7 +3783,7 @@
         <v>68</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>70</v>
@@ -3855,7 +3836,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3893,10 +3874,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3922,10 +3903,10 @@
         <v>67</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3976,7 +3957,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4014,10 +3995,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4040,19 +4021,19 @@
         <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -4101,7 +4082,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4113,36 +4094,36 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AP18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4165,13 +4146,13 @@
         <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4222,7 +4203,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4234,36 +4215,36 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4286,16 +4267,16 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4306,29 +4287,29 @@
         <v>35</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
       </c>
@@ -4345,7 +4326,7 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>47</v>
@@ -4357,36 +4338,36 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AP20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4409,16 +4390,16 @@
         <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4444,14 +4425,14 @@
         <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>35</v>
       </c>
@@ -4468,7 +4449,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4480,25 +4461,25 @@
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4506,10 +4487,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4532,16 +4513,16 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4567,14 +4548,14 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
       </c>
@@ -4591,7 +4572,7 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4603,40 +4584,40 @@
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4655,16 +4636,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4690,14 +4671,14 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
       </c>
@@ -4714,7 +4695,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4726,36 +4707,36 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4778,13 +4759,13 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4835,7 +4816,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4847,40 +4828,40 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4902,13 +4883,13 @@
         <v>85</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4958,7 +4939,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4970,22 +4951,22 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
@@ -4996,10 +4977,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5022,16 +5003,16 @@
         <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5081,7 +5062,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5093,36 +5074,36 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5145,16 +5126,16 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5204,7 +5185,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5216,36 +5197,36 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AQ27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5268,16 +5249,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5327,7 +5308,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5339,16 +5320,16 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>35</v>
@@ -5365,10 +5346,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5391,16 +5372,16 @@
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5450,7 +5431,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5462,16 +5443,16 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>35</v>
@@ -5483,15 +5464,15 @@
         <v>35</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5609,10 +5590,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5732,14 +5713,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5761,16 +5742,16 @@
         <v>67</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>70</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5819,7 +5800,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5857,10 +5838,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5883,16 +5864,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5918,13 +5899,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5942,7 +5923,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>47</v>
@@ -5954,16 +5935,16 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -5975,15 +5956,15 @@
         <v>35</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6006,13 +5987,13 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6063,7 +6044,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>47</v>
@@ -6075,16 +6056,16 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6096,15 +6077,15 @@
         <v>35</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6130,16 +6111,16 @@
         <v>60</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
@@ -6188,7 +6169,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -6200,7 +6181,7 @@
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -6209,7 +6190,7 @@
         <v>35</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6218,18 +6199,18 @@
         <v>35</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6252,19 +6233,19 @@
         <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>35</v>
@@ -6289,14 +6270,14 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
       </c>
@@ -6313,7 +6294,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6325,36 +6306,36 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AQ36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6377,13 +6358,13 @@
         <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6434,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>47</v>
@@ -6446,16 +6427,16 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6472,10 +6453,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6593,10 +6574,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6716,14 +6697,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6745,16 +6726,16 @@
         <v>67</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>35</v>
@@ -6803,7 +6784,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6841,10 +6822,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6867,13 +6848,13 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6924,7 +6905,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>47</v>
@@ -6942,30 +6923,30 @@
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7083,10 +7064,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7206,10 +7187,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7232,17 +7213,17 @@
         <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>35</v>
@@ -7255,43 +7236,43 @@
         <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7303,7 +7284,7 @@
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -7312,7 +7293,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7321,7 +7302,7 @@
         <v>35</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>35</v>
@@ -7329,10 +7310,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7355,17 +7336,17 @@
         <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>35</v>
@@ -7378,7 +7359,7 @@
         <v>35</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>35</v>
@@ -7390,14 +7371,14 @@
         <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>35</v>
       </c>
@@ -7414,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7426,7 +7407,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7435,7 +7416,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -7452,10 +7433,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7478,19 +7459,19 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -7539,7 +7520,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7551,7 +7532,7 @@
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -7560,7 +7541,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -7569,7 +7550,7 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
@@ -7577,10 +7558,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7603,19 +7584,19 @@
         <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -7628,7 +7609,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -7664,7 +7645,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7676,7 +7657,7 @@
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -7685,7 +7666,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -7694,7 +7675,7 @@
         <v>35</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>35</v>
@@ -7702,10 +7683,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7728,19 +7709,19 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -7789,7 +7770,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7801,7 +7782,7 @@
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -7810,7 +7791,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -7827,10 +7808,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7853,19 +7834,19 @@
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7914,7 +7895,7 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7926,7 +7907,7 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7935,7 +7916,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -7952,10 +7933,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7981,14 +7962,14 @@
         <v>60</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8001,7 +7982,7 @@
         <v>35</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>35</v>
@@ -8037,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8049,7 +8030,7 @@
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8058,7 +8039,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8075,10 +8056,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8101,17 +8082,17 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8160,7 +8141,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8172,7 +8153,7 @@
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8181,7 +8162,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8198,10 +8179,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8224,16 +8205,16 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8259,13 +8240,13 @@
         <v>35</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -8283,7 +8264,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8295,36 +8276,36 @@
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8347,16 +8328,16 @@
         <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8406,7 +8387,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8418,7 +8399,7 @@
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -8427,7 +8408,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -8444,10 +8425,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8565,10 +8546,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8688,14 +8669,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8717,16 +8698,16 @@
         <v>67</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>70</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
@@ -8775,7 +8756,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8813,10 +8794,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8839,13 +8820,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8896,7 +8877,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8908,22 +8889,22 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>35</v>
@@ -8934,10 +8915,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8960,16 +8941,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8995,13 +8976,13 @@
         <v>35</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>35</v>
@@ -9019,7 +9000,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9031,36 +9012,36 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9083,13 +9064,13 @@
         <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9140,7 +9121,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9152,36 +9133,36 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9204,13 +9185,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9237,13 +9218,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9261,7 +9242,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9273,36 +9254,36 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9325,19 +9306,19 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
@@ -9362,13 +9343,13 @@
         <v>35</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>35</v>
@@ -9386,7 +9367,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9398,19 +9379,19 @@
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -9419,15 +9400,15 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9450,13 +9431,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9507,7 +9488,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9519,20 +9500,20 @@
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
       </c>
@@ -9540,15 +9521,15 @@
         <v>35</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9571,16 +9552,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9630,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9642,28 +9623,28 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:54:45+00:00</t>
+    <t>2023-07-26T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1504,10 +1504,6 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
-</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -9431,13 +9427,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9521,15 +9517,15 @@
         <v>35</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9552,16 +9548,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9611,7 +9607,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9629,22 +9625,22 @@
         <v>35</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:00:21+00:00</t>
+    <t>2023-07-26T15:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:44:02+00:00</t>
+    <t>2023-07-27T13:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:02:42+00:00</t>
+    <t>2023-07-27T13:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:06:07+00:00</t>
+    <t>2023-08-31T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -201,6 +205,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -277,10 +285,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -2003,19 +2007,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2029,10 +2033,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2043,7 +2047,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2052,19 +2056,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2114,13 +2118,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2152,10 +2156,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2166,7 +2170,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2175,16 +2179,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2235,19 +2239,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2273,10 +2277,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2287,7 +2291,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2299,13 +2303,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2356,13 +2360,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2377,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2394,14 +2398,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2420,16 +2424,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2467,19 +2471,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2488,10 +2492,10 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2500,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2517,10 +2521,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2531,28 +2535,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2602,19 +2606,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2623,7 +2627,7 @@
         <v>35</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>35</v>
@@ -2640,10 +2644,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2654,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2663,19 +2667,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2725,19 +2729,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -2746,7 +2750,7 @@
         <v>35</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>35</v>
@@ -2763,10 +2767,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2777,7 +2781,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -2786,19 +2790,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2848,19 +2852,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2869,7 +2873,7 @@
         <v>35</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>35</v>
@@ -2886,10 +2890,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2909,19 +2913,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2971,7 +2975,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2980,10 +2984,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2992,7 +2996,7 @@
         <v>35</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>35</v>
@@ -3009,10 +3013,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3032,19 +3036,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3070,13 +3074,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3094,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3103,10 +3107,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3115,7 +3119,7 @@
         <v>35</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>35</v>
@@ -3124,7 +3128,7 @@
         <v>35</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>35</v>
@@ -3132,10 +3136,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3155,19 +3159,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3193,13 +3197,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3217,7 +3221,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3226,10 +3230,10 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3238,7 +3242,7 @@
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>35</v>
@@ -3247,7 +3251,7 @@
         <v>35</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>35</v>
@@ -3255,10 +3259,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3269,28 +3273,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3340,19 +3344,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3378,10 +3382,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3392,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3404,16 +3408,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3439,13 +3443,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3463,19 +3467,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3501,21 +3505,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3527,16 +3531,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3586,19 +3590,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3607,7 +3611,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -3624,14 +3628,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3650,16 +3654,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3709,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3730,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -3747,14 +3751,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3773,16 +3777,16 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3832,7 +3836,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3844,7 +3848,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -3853,7 +3857,7 @@
         <v>35</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>35</v>
@@ -3870,10 +3874,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3890,19 +3894,19 @@
         <v>35</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3953,7 +3957,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3965,7 +3969,7 @@
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -3991,10 +3995,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4002,34 +4006,34 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -4078,48 +4082,48 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4133,22 +4137,22 @@
         <v>36</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4199,7 +4203,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4211,36 +4215,36 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4248,31 +4252,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4283,7 +4287,7 @@
         <v>35</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>35</v>
@@ -4298,13 +4302,13 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
@@ -4322,48 +4326,48 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4383,19 +4387,19 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4421,13 +4425,13 @@
         <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>35</v>
@@ -4445,37 +4449,37 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4483,10 +4487,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4497,28 +4501,28 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4544,13 +4548,13 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -4568,80 +4572,80 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4667,13 +4671,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4691,7 +4695,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4703,36 +4707,36 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4740,10 +4744,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4752,16 +4756,16 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4812,80 +4816,80 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4935,34 +4939,34 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
@@ -4973,10 +4977,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4984,31 +4988,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5058,7 +5062,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5070,36 +5074,36 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5110,10 +5114,10 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
@@ -5122,16 +5126,16 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5181,48 +5185,48 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5233,7 +5237,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -5245,16 +5249,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5304,28 +5308,28 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>35</v>
@@ -5342,10 +5346,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5359,25 +5363,25 @@
         <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5427,7 +5431,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5439,16 +5443,16 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>35</v>
@@ -5460,15 +5464,15 @@
         <v>35</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5479,7 +5483,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5491,13 +5495,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5548,13 +5552,13 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
@@ -5569,7 +5573,7 @@
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -5586,14 +5590,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5612,16 +5616,16 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5671,7 +5675,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5683,7 +5687,7 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
@@ -5692,7 +5696,7 @@
         <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -5709,14 +5713,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5729,25 +5733,25 @@
         <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5796,7 +5800,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5808,7 +5812,7 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
@@ -5817,7 +5821,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -5834,10 +5838,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5845,10 +5849,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5857,19 +5861,19 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5895,13 +5899,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5919,28 +5923,28 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -5952,15 +5956,15 @@
         <v>35</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5968,10 +5972,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5980,16 +5984,16 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6040,28 +6044,28 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6073,15 +6077,15 @@
         <v>35</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6092,31 +6096,31 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
@@ -6165,19 +6169,19 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -6186,7 +6190,7 @@
         <v>35</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6195,18 +6199,18 @@
         <v>35</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6220,28 +6224,28 @@
         <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>35</v>
@@ -6266,13 +6270,13 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
@@ -6290,7 +6294,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6302,36 +6306,36 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6339,28 +6343,28 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6411,10 +6415,10 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
@@ -6423,16 +6427,16 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6449,10 +6453,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6463,7 +6467,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -6475,13 +6479,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6532,13 +6536,13 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
@@ -6553,7 +6557,7 @@
         <v>35</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>35</v>
@@ -6570,14 +6574,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6596,16 +6600,16 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6655,7 +6659,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6667,7 +6671,7 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
@@ -6676,7 +6680,7 @@
         <v>35</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -6693,14 +6697,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6713,25 +6717,25 @@
         <v>35</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>35</v>
@@ -6780,7 +6784,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6792,7 +6796,7 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
@@ -6801,7 +6805,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -6818,10 +6822,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6829,10 +6833,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
@@ -6841,16 +6845,16 @@
         <v>35</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6901,48 +6905,48 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6953,7 +6957,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>35</v>
@@ -6965,13 +6969,13 @@
         <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7022,13 +7026,13 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>35</v>
@@ -7043,7 +7047,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7060,14 +7064,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7086,16 +7090,16 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7133,19 +7137,19 @@
         <v>35</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -7157,7 +7161,7 @@
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -7166,7 +7170,7 @@
         <v>35</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>35</v>
@@ -7183,10 +7187,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7194,10 +7198,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7206,20 +7210,20 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>35</v>
@@ -7232,7 +7236,7 @@
         <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>35</v>
@@ -7244,13 +7248,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -7268,19 +7272,19 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -7289,7 +7293,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7298,7 +7302,7 @@
         <v>35</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>35</v>
@@ -7306,10 +7310,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7320,29 +7324,29 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>35</v>
@@ -7355,7 +7359,7 @@
         <v>35</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>35</v>
@@ -7367,13 +7371,13 @@
         <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>35</v>
@@ -7391,19 +7395,19 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7412,7 +7416,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -7429,10 +7433,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7440,10 +7444,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -7455,19 +7459,19 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -7516,19 +7520,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -7537,7 +7541,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -7546,7 +7550,7 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
@@ -7554,10 +7558,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7577,22 +7581,22 @@
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -7605,7 +7609,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -7641,19 +7645,19 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -7662,7 +7666,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -7671,7 +7675,7 @@
         <v>35</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>35</v>
@@ -7679,10 +7683,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7693,7 +7697,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -7702,22 +7706,22 @@
         <v>35</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -7766,19 +7770,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -7787,7 +7791,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -7804,10 +7808,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7818,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -7827,22 +7831,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7891,19 +7895,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7912,7 +7916,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -7929,10 +7933,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7940,10 +7944,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7952,20 +7956,20 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -7978,7 +7982,7 @@
         <v>35</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>35</v>
@@ -8014,19 +8018,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8035,7 +8039,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8052,10 +8056,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8066,29 +8070,29 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8137,19 +8141,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8158,7 +8162,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8175,10 +8179,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8189,28 +8193,28 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8236,13 +8240,13 @@
         <v>35</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -8260,31 +8264,31 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>35</v>
@@ -8293,15 +8297,15 @@
         <v>35</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8312,28 +8316,28 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8383,19 +8387,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -8404,7 +8408,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -8421,10 +8425,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8435,7 +8439,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -8447,13 +8451,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8504,13 +8508,13 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
@@ -8525,7 +8529,7 @@
         <v>35</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>35</v>
@@ -8542,14 +8546,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8568,16 +8572,16 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8627,7 +8631,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8639,7 +8643,7 @@
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -8648,7 +8652,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -8665,14 +8669,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8685,25 +8689,25 @@
         <v>35</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
@@ -8752,7 +8756,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8764,7 +8768,7 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
@@ -8773,7 +8777,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -8790,10 +8794,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8816,13 +8820,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8873,7 +8877,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8885,22 +8889,22 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>35</v>
@@ -8911,10 +8915,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8925,7 +8929,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>35</v>
@@ -8937,16 +8941,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8972,13 +8976,13 @@
         <v>35</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>35</v>
@@ -8996,7 +9000,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9008,16 +9012,16 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9029,15 +9033,15 @@
         <v>35</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9048,25 +9052,25 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9117,31 +9121,31 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>35</v>
@@ -9150,15 +9154,15 @@
         <v>35</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9169,10 +9173,10 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>35</v>
@@ -9181,13 +9185,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9214,13 +9218,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9238,31 +9242,31 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>35</v>
@@ -9271,15 +9275,15 @@
         <v>35</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9290,10 +9294,10 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
@@ -9302,19 +9306,19 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
@@ -9339,13 +9343,13 @@
         <v>35</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>35</v>
@@ -9363,32 +9367,32 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AN61" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
       </c>
@@ -9396,15 +9400,15 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9415,10 +9419,10 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>35</v>
@@ -9427,13 +9431,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9484,31 +9488,31 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9517,15 +9521,15 @@
         <v>35</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9548,16 +9552,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9607,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9619,19 +9623,19 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>35</v>
@@ -9640,7 +9644,7 @@
         <v>35</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:15:41+00:00</t>
+    <t>2023-08-31T15:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
